--- a/Project Data06 Performance target.xlsx
+++ b/Project Data06 Performance target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f106c479f5fe235e/918 01_SIT 2024-2025/2024 DSC2302 Demand Inventory Planning/01 Lecture Notes (2024Sep)/Week04Lab Mento Carlo simulation/Lab 4 Simulation GUI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MorePycharmProjects\DemandPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{61EBD543-2380-4E81-9BF8-20182B5347C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85F427C-64CA-4BD3-9585-359AC1D1291B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0A61FA-0601-4D74-9CC1-65729E1FFA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{72D2C4C5-AD43-4887-B1B9-50AC39242473}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72D2C4C5-AD43-4887-B1B9-50AC39242473}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Inventory Position" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -72,124 +72,10 @@
     <t>SKU Code</t>
   </si>
   <si>
-    <t>SKU1001</t>
-  </si>
-  <si>
-    <t>Name-1001</t>
-  </si>
-  <si>
-    <t>SKU1002</t>
-  </si>
-  <si>
-    <t>Name-1002</t>
-  </si>
-  <si>
-    <t>SKU1007</t>
-  </si>
-  <si>
-    <t>Name-1007</t>
-  </si>
-  <si>
-    <t>SKU1008</t>
-  </si>
-  <si>
-    <t>Name-1008</t>
-  </si>
-  <si>
-    <t>SKU1012</t>
-  </si>
-  <si>
-    <t>Name-1012</t>
-  </si>
-  <si>
-    <t>SKU1016</t>
-  </si>
-  <si>
-    <t>Name-1016</t>
-  </si>
-  <si>
-    <t>SKU1017</t>
-  </si>
-  <si>
-    <t>Name-1017</t>
-  </si>
-  <si>
-    <t>SKU1018</t>
-  </si>
-  <si>
-    <t>Name-1018</t>
-  </si>
-  <si>
-    <t>SKU1019</t>
-  </si>
-  <si>
-    <t>Name-1019</t>
-  </si>
-  <si>
-    <t>SKU1022</t>
-  </si>
-  <si>
-    <t>Name-1022</t>
-  </si>
-  <si>
-    <t>SKU1023</t>
-  </si>
-  <si>
-    <t>Name-1023</t>
-  </si>
-  <si>
-    <t>SKU1024</t>
-  </si>
-  <si>
-    <t>Name-1024</t>
-  </si>
-  <si>
-    <t>SKU1028</t>
-  </si>
-  <si>
-    <t>Name-1028</t>
-  </si>
-  <si>
     <t>SKU1029</t>
   </si>
   <si>
     <t>Name-1029</t>
-  </si>
-  <si>
-    <t>SKU1030</t>
-  </si>
-  <si>
-    <t>Name-1030</t>
-  </si>
-  <si>
-    <t>SKU1039</t>
-  </si>
-  <si>
-    <t>Name-1039</t>
-  </si>
-  <si>
-    <t>SKU1040</t>
-  </si>
-  <si>
-    <t>Name-1040</t>
-  </si>
-  <si>
-    <t>SKU1048</t>
-  </si>
-  <si>
-    <t>Name-1048</t>
-  </si>
-  <si>
-    <t>SKU1049</t>
-  </si>
-  <si>
-    <t>Name-1049</t>
-  </si>
-  <si>
-    <t>SKU1050</t>
-  </si>
-  <si>
-    <t>Name-1050</t>
   </si>
   <si>
     <t>Average Total Lead Time</t>
@@ -203,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="165" formatCode="#0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +117,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +167,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -313,27 +211,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -341,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,9 +286,6 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -390,31 +300,19 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +329,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,9 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59BF40C-C0D4-41EA-968C-09BC19670A7F}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F21"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>4</v>
@@ -783,19 +677,19 @@
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -813,31 +707,32 @@
         <v>0.9</v>
       </c>
       <c r="E2" s="11">
-        <v>58</v>
+        <v>720</v>
       </c>
       <c r="F2" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="H2" s="11">
-        <v>5</v>
-      </c>
-      <c r="I2" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="J2" s="14">
+        <v>16</v>
+      </c>
+      <c r="I2" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J2" s="13">
         <v>0.95</v>
       </c>
       <c r="K2" s="11">
-        <v>21</v>
-      </c>
-      <c r="L2" s="19">
-        <v>20</v>
-      </c>
-      <c r="M2" s="20">
-        <v>5</v>
+        <v>214</v>
+      </c>
+      <c r="L2" s="17">
+        <f>$G$2+$H$2</f>
+        <v>226</v>
+      </c>
+      <c r="M2" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,40 +740,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10">
         <v>0.9</v>
       </c>
-      <c r="E3" s="12">
-        <v>35</v>
-      </c>
-      <c r="F3" s="12">
-        <v>12</v>
-      </c>
-      <c r="G3" s="12">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12">
-        <v>4</v>
-      </c>
-      <c r="I3" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K3" s="12">
-        <v>14</v>
-      </c>
-      <c r="L3" s="21">
-        <v>13</v>
-      </c>
-      <c r="M3" s="22">
-        <v>3</v>
+      <c r="E3" s="11">
+        <v>720</v>
+      </c>
+      <c r="F3" s="11">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11">
+        <v>210</v>
+      </c>
+      <c r="H3" s="11">
+        <v>16</v>
+      </c>
+      <c r="I3" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K3" s="11">
+        <v>214</v>
+      </c>
+      <c r="L3" s="17">
+        <f t="shared" ref="L3:L21" si="0">$G$2+$H$2</f>
+        <v>226</v>
+      </c>
+      <c r="M3" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -886,40 +782,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10">
         <v>0.9</v>
       </c>
-      <c r="E4" s="12">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12">
-        <v>12</v>
-      </c>
-      <c r="G4" s="12">
-        <v>2</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2</v>
-      </c>
-      <c r="I4" s="18">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K4" s="12">
-        <v>4</v>
-      </c>
-      <c r="L4" s="21">
-        <v>4</v>
-      </c>
-      <c r="M4" s="22">
-        <v>1</v>
+      <c r="E4" s="11">
+        <v>720</v>
+      </c>
+      <c r="F4" s="11">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11">
+        <v>210</v>
+      </c>
+      <c r="H4" s="11">
+        <v>16</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="11">
+        <v>214</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M4" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -927,40 +824,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10">
         <v>0.9</v>
       </c>
-      <c r="E5" s="12">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12">
-        <v>4</v>
-      </c>
-      <c r="H5" s="12">
-        <v>2</v>
-      </c>
-      <c r="I5" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K5" s="12">
-        <v>6</v>
-      </c>
-      <c r="L5" s="21">
-        <v>6</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1</v>
+      <c r="E5" s="11">
+        <v>720</v>
+      </c>
+      <c r="F5" s="11">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11">
+        <v>210</v>
+      </c>
+      <c r="H5" s="11">
+        <v>16</v>
+      </c>
+      <c r="I5" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="11">
+        <v>214</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M5" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -968,40 +866,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10">
         <v>0.9</v>
       </c>
-      <c r="E6" s="12">
-        <v>44</v>
-      </c>
-      <c r="F6" s="12">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12">
-        <v>5</v>
-      </c>
-      <c r="I6" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K6" s="12">
-        <v>17</v>
-      </c>
-      <c r="L6" s="21">
-        <v>16</v>
-      </c>
-      <c r="M6" s="22">
-        <v>4</v>
+      <c r="E6" s="11">
+        <v>720</v>
+      </c>
+      <c r="F6" s="11">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11">
+        <v>210</v>
+      </c>
+      <c r="H6" s="11">
+        <v>16</v>
+      </c>
+      <c r="I6" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K6" s="11">
+        <v>214</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M6" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1009,40 +908,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>0.9</v>
       </c>
-      <c r="E7" s="12">
-        <v>654</v>
-      </c>
-      <c r="F7" s="12">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12">
-        <v>164</v>
-      </c>
-      <c r="H7" s="12">
-        <v>16</v>
-      </c>
-      <c r="I7" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K7" s="12">
-        <v>196</v>
-      </c>
-      <c r="L7" s="21">
-        <v>180</v>
-      </c>
-      <c r="M7" s="22">
-        <v>55</v>
+      <c r="E7" s="11">
+        <v>720</v>
+      </c>
+      <c r="F7" s="11">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11">
+        <v>210</v>
+      </c>
+      <c r="H7" s="11">
+        <v>16</v>
+      </c>
+      <c r="I7" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="11">
+        <v>214</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M7" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1050,40 +950,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D8" s="10">
         <v>0.9</v>
       </c>
-      <c r="E8" s="12">
-        <v>779</v>
-      </c>
-      <c r="F8" s="12">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12">
-        <v>195</v>
-      </c>
-      <c r="H8" s="12">
-        <v>18</v>
-      </c>
-      <c r="I8" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K8" s="12">
-        <v>232</v>
-      </c>
-      <c r="L8" s="21">
-        <v>213</v>
-      </c>
-      <c r="M8" s="22">
-        <v>65</v>
+      <c r="E8" s="11">
+        <v>720</v>
+      </c>
+      <c r="F8" s="11">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11">
+        <v>210</v>
+      </c>
+      <c r="H8" s="11">
+        <v>16</v>
+      </c>
+      <c r="I8" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="11">
+        <v>214</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M8" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1091,40 +992,41 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D9" s="10">
         <v>0.9</v>
       </c>
-      <c r="E9" s="12">
-        <v>906</v>
-      </c>
-      <c r="F9" s="12">
-        <v>12</v>
-      </c>
-      <c r="G9" s="12">
-        <v>227</v>
-      </c>
-      <c r="H9" s="12">
-        <v>22</v>
-      </c>
-      <c r="I9" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K9" s="12">
-        <v>272</v>
-      </c>
-      <c r="L9" s="21">
-        <v>249</v>
-      </c>
-      <c r="M9" s="22">
-        <v>76</v>
+      <c r="E9" s="11">
+        <v>720</v>
+      </c>
+      <c r="F9" s="11">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11">
+        <v>210</v>
+      </c>
+      <c r="H9" s="11">
+        <v>16</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K9" s="11">
+        <v>214</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M9" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1132,40 +1034,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10" s="10">
         <v>0.9</v>
       </c>
-      <c r="E10" s="12">
-        <v>882</v>
-      </c>
-      <c r="F10" s="12">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12">
-        <v>221</v>
-      </c>
-      <c r="H10" s="12">
-        <v>21</v>
-      </c>
-      <c r="I10" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K10" s="12">
-        <v>264</v>
-      </c>
-      <c r="L10" s="21">
-        <v>242</v>
-      </c>
-      <c r="M10" s="22">
-        <v>74</v>
+      <c r="E10" s="11">
+        <v>720</v>
+      </c>
+      <c r="F10" s="11">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11">
+        <v>210</v>
+      </c>
+      <c r="H10" s="11">
+        <v>16</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="11">
+        <v>214</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M10" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1173,40 +1076,41 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D11" s="10">
         <v>0.9</v>
       </c>
-      <c r="E11" s="12">
-        <v>794</v>
-      </c>
-      <c r="F11" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12">
-        <v>199</v>
-      </c>
-      <c r="H11" s="12">
-        <v>18</v>
-      </c>
-      <c r="I11" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K11" s="12">
-        <v>237</v>
-      </c>
-      <c r="L11" s="21">
-        <v>217</v>
-      </c>
-      <c r="M11" s="22">
-        <v>66</v>
+      <c r="E11" s="11">
+        <v>720</v>
+      </c>
+      <c r="F11" s="11">
+        <v>14</v>
+      </c>
+      <c r="G11" s="11">
+        <v>210</v>
+      </c>
+      <c r="H11" s="11">
+        <v>16</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="11">
+        <v>214</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M11" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1214,40 +1118,41 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D12" s="10">
         <v>0.9</v>
       </c>
-      <c r="E12" s="12">
-        <v>550</v>
-      </c>
-      <c r="F12" s="12">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12">
-        <v>138</v>
-      </c>
-      <c r="H12" s="12">
-        <v>13</v>
-      </c>
-      <c r="I12" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K12" s="12">
-        <v>165</v>
-      </c>
-      <c r="L12" s="21">
-        <v>151</v>
-      </c>
-      <c r="M12" s="22">
-        <v>46</v>
+      <c r="E12" s="11">
+        <v>720</v>
+      </c>
+      <c r="F12" s="11">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11">
+        <v>210</v>
+      </c>
+      <c r="H12" s="11">
+        <v>16</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K12" s="11">
+        <v>214</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M12" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1255,40 +1160,41 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D13" s="10">
         <v>0.9</v>
       </c>
-      <c r="E13" s="12">
-        <v>813</v>
-      </c>
-      <c r="F13" s="12">
-        <v>12</v>
-      </c>
-      <c r="G13" s="12">
-        <v>203</v>
-      </c>
-      <c r="H13" s="12">
-        <v>18</v>
-      </c>
-      <c r="I13" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K13" s="12">
-        <v>241</v>
-      </c>
-      <c r="L13" s="21">
-        <v>221</v>
-      </c>
-      <c r="M13" s="22">
-        <v>68</v>
+      <c r="E13" s="11">
+        <v>720</v>
+      </c>
+      <c r="F13" s="11">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11">
+        <v>210</v>
+      </c>
+      <c r="H13" s="11">
+        <v>16</v>
+      </c>
+      <c r="I13" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K13" s="11">
+        <v>214</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M13" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1296,40 +1202,41 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D14" s="10">
         <v>0.9</v>
       </c>
-      <c r="E14" s="12">
-        <v>741</v>
-      </c>
-      <c r="F14" s="12">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12">
-        <v>185</v>
-      </c>
-      <c r="H14" s="12">
-        <v>16</v>
-      </c>
-      <c r="I14" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K14" s="12">
-        <v>220</v>
-      </c>
-      <c r="L14" s="21">
-        <v>201</v>
-      </c>
-      <c r="M14" s="22">
-        <v>62</v>
+      <c r="E14" s="11">
+        <v>720</v>
+      </c>
+      <c r="F14" s="11">
+        <v>14</v>
+      </c>
+      <c r="G14" s="11">
+        <v>210</v>
+      </c>
+      <c r="H14" s="11">
+        <v>16</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K14" s="11">
+        <v>214</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M14" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1337,39 +1244,40 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D15" s="10">
         <v>0.9</v>
       </c>
-      <c r="E15" s="12">
-        <v>720</v>
-      </c>
-      <c r="F15" s="12">
-        <v>12</v>
-      </c>
-      <c r="G15" s="12">
-        <v>180</v>
-      </c>
-      <c r="H15" s="12">
-        <v>16</v>
-      </c>
-      <c r="I15" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K15" s="12">
-        <v>214</v>
-      </c>
-      <c r="L15" s="21">
-        <v>196</v>
-      </c>
-      <c r="M15" s="22">
+      <c r="E15" s="11">
+        <v>720</v>
+      </c>
+      <c r="F15" s="11">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11">
+        <v>210</v>
+      </c>
+      <c r="H15" s="11">
+        <v>16</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K15" s="11">
+        <v>214</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M15" s="19">
         <v>60</v>
       </c>
     </row>
@@ -1378,40 +1286,41 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D16" s="10">
         <v>0.9</v>
       </c>
-      <c r="E16" s="12">
-        <v>905</v>
-      </c>
-      <c r="F16" s="12">
-        <v>12</v>
-      </c>
-      <c r="G16" s="12">
-        <v>226</v>
-      </c>
-      <c r="H16" s="12">
-        <v>22</v>
-      </c>
-      <c r="I16" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K16" s="12">
-        <v>271</v>
-      </c>
-      <c r="L16" s="21">
-        <v>248</v>
-      </c>
-      <c r="M16" s="22">
-        <v>75</v>
+      <c r="E16" s="11">
+        <v>720</v>
+      </c>
+      <c r="F16" s="11">
+        <v>14</v>
+      </c>
+      <c r="G16" s="11">
+        <v>210</v>
+      </c>
+      <c r="H16" s="11">
+        <v>16</v>
+      </c>
+      <c r="I16" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K16" s="11">
+        <v>214</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M16" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1419,40 +1328,41 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D17" s="10">
         <v>0.9</v>
       </c>
-      <c r="E17" s="12">
-        <v>1094</v>
-      </c>
-      <c r="F17" s="12">
-        <v>12</v>
-      </c>
-      <c r="G17" s="12">
-        <v>274</v>
-      </c>
-      <c r="H17" s="12">
-        <v>24</v>
-      </c>
-      <c r="I17" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K17" s="12">
-        <v>325</v>
-      </c>
-      <c r="L17" s="21">
-        <v>298</v>
-      </c>
-      <c r="M17" s="22">
-        <v>91</v>
+      <c r="E17" s="11">
+        <v>720</v>
+      </c>
+      <c r="F17" s="11">
+        <v>14</v>
+      </c>
+      <c r="G17" s="11">
+        <v>210</v>
+      </c>
+      <c r="H17" s="11">
+        <v>16</v>
+      </c>
+      <c r="I17" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="11">
+        <v>214</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M17" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1460,40 +1370,41 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10">
         <v>0.9</v>
       </c>
-      <c r="E18" s="12">
-        <v>1136</v>
-      </c>
-      <c r="F18" s="12">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12">
-        <v>284</v>
-      </c>
-      <c r="H18" s="12">
-        <v>25</v>
-      </c>
-      <c r="I18" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K18" s="12">
-        <v>337</v>
-      </c>
-      <c r="L18" s="21">
-        <v>309</v>
-      </c>
-      <c r="M18" s="22">
-        <v>95</v>
+      <c r="E18" s="11">
+        <v>720</v>
+      </c>
+      <c r="F18" s="11">
+        <v>14</v>
+      </c>
+      <c r="G18" s="11">
+        <v>210</v>
+      </c>
+      <c r="H18" s="11">
+        <v>16</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K18" s="11">
+        <v>214</v>
+      </c>
+      <c r="L18" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M18" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1501,40 +1412,41 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D19" s="10">
         <v>0.9</v>
       </c>
-      <c r="E19" s="12">
-        <v>1284</v>
-      </c>
-      <c r="F19" s="12">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12">
-        <v>321</v>
-      </c>
-      <c r="H19" s="12">
-        <v>29</v>
-      </c>
-      <c r="I19" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K19" s="12">
-        <v>382</v>
-      </c>
-      <c r="L19" s="21">
-        <v>350</v>
-      </c>
-      <c r="M19" s="22">
-        <v>107</v>
+      <c r="E19" s="11">
+        <v>720</v>
+      </c>
+      <c r="F19" s="11">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11">
+        <v>210</v>
+      </c>
+      <c r="H19" s="11">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K19" s="11">
+        <v>214</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M19" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1542,40 +1454,41 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D20" s="10">
         <v>0.9</v>
       </c>
-      <c r="E20" s="12">
-        <v>896</v>
-      </c>
-      <c r="F20" s="12">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12">
-        <v>224</v>
-      </c>
-      <c r="H20" s="12">
-        <v>20</v>
-      </c>
-      <c r="I20" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="K20" s="12">
-        <v>266</v>
-      </c>
-      <c r="L20" s="21">
-        <v>244</v>
-      </c>
-      <c r="M20" s="22">
-        <v>75</v>
+      <c r="E20" s="11">
+        <v>720</v>
+      </c>
+      <c r="F20" s="11">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11">
+        <v>210</v>
+      </c>
+      <c r="H20" s="11">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K20" s="11">
+        <v>214</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M20" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1583,44 +1496,48 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D21" s="10">
         <v>0.9</v>
       </c>
-      <c r="E21" s="12">
-        <v>982</v>
-      </c>
-      <c r="F21" s="12">
-        <v>12</v>
-      </c>
-      <c r="G21" s="12">
-        <v>246</v>
-      </c>
-      <c r="H21" s="12">
-        <v>22</v>
-      </c>
-      <c r="I21" s="18">
-        <v>3.4</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K21" s="12">
-        <v>293</v>
-      </c>
-      <c r="L21" s="21">
-        <v>268</v>
-      </c>
-      <c r="M21" s="22">
-        <v>82</v>
+      <c r="E21" s="11">
+        <v>720</v>
+      </c>
+      <c r="F21" s="11">
+        <v>14</v>
+      </c>
+      <c r="G21" s="11">
+        <v>210</v>
+      </c>
+      <c r="H21" s="11">
+        <v>16</v>
+      </c>
+      <c r="I21" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K21" s="11">
+        <v>214</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="M21" s="19">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L2:L3 L4:L21" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>